--- a/Observaciones a formulario Web Tecmar (Ruth)/Observaciones Formulario Prototipo.xlsx
+++ b/Observaciones a formulario Web Tecmar (Ruth)/Observaciones Formulario Prototipo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="198">
   <si>
     <t>formularios</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>*** problemática 25</t>
+  </si>
+  <si>
+    <t>comandante ok</t>
   </si>
 </sst>
 </file>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,6 +2658,9 @@
       <c r="D103" t="s">
         <v>160</v>
       </c>
+      <c r="E103" t="s">
+        <v>197</v>
+      </c>
       <c r="F103" t="s">
         <v>85</v>
       </c>
@@ -2671,6 +2677,9 @@
       </c>
       <c r="D104" t="s">
         <v>160</v>
+      </c>
+      <c r="E104" t="s">
+        <v>197</v>
       </c>
       <c r="F104" t="s">
         <v>85</v>
